--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ifne-Ifnar1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ifne-Ifnar1.xlsx
@@ -537,10 +537,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.050611</v>
+        <v>0.100337</v>
       </c>
       <c r="H2">
-        <v>0.151833</v>
+        <v>0.301011</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.17918166666666</v>
+        <v>30.224788</v>
       </c>
       <c r="N2">
-        <v>75.53754499999999</v>
+        <v>90.674364</v>
       </c>
       <c r="O2">
-        <v>0.2628209717145306</v>
+        <v>0.3247052378228209</v>
       </c>
       <c r="P2">
-        <v>0.2628209717145306</v>
+        <v>0.3247052378228209</v>
       </c>
       <c r="Q2">
-        <v>1.274343563331666</v>
+        <v>3.032664553556</v>
       </c>
       <c r="R2">
-        <v>11.469092069985</v>
+        <v>27.293980982004</v>
       </c>
       <c r="S2">
-        <v>0.2628209717145306</v>
+        <v>0.3247052378228209</v>
       </c>
       <c r="T2">
-        <v>0.2628209717145306</v>
+        <v>0.3247052378228209</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,10 +599,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.050611</v>
+        <v>0.100337</v>
       </c>
       <c r="H3">
-        <v>0.151833</v>
+        <v>0.301011</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.25845733333334</v>
+        <v>20.25845733333333</v>
       </c>
       <c r="N3">
         <v>60.775372</v>
       </c>
       <c r="O3">
-        <v>0.2114583195065722</v>
+        <v>0.2176368352473959</v>
       </c>
       <c r="P3">
-        <v>0.2114583195065722</v>
+        <v>0.217636835247396</v>
       </c>
       <c r="Q3">
-        <v>1.025300784097333</v>
+        <v>2.032672833454666</v>
       </c>
       <c r="R3">
-        <v>9.227707056876</v>
+        <v>18.294055501092</v>
       </c>
       <c r="S3">
-        <v>0.2114583195065722</v>
+        <v>0.2176368352473959</v>
       </c>
       <c r="T3">
-        <v>0.2114583195065722</v>
+        <v>0.217636835247396</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,10 +661,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.050611</v>
+        <v>0.100337</v>
       </c>
       <c r="H4">
-        <v>0.151833</v>
+        <v>0.301011</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.20042266666667</v>
+        <v>12.725178</v>
       </c>
       <c r="N4">
-        <v>36.601268</v>
+        <v>38.175534</v>
       </c>
       <c r="O4">
-        <v>0.1273483381243586</v>
+        <v>0.1367067305427495</v>
       </c>
       <c r="P4">
-        <v>0.1273483381243586</v>
+        <v>0.1367067305427495</v>
       </c>
       <c r="Q4">
-        <v>0.6174755915826666</v>
+        <v>1.276806184986</v>
       </c>
       <c r="R4">
-        <v>5.557280324243999</v>
+        <v>11.491255664874</v>
       </c>
       <c r="S4">
-        <v>0.1273483381243586</v>
+        <v>0.1367067305427495</v>
       </c>
       <c r="T4">
-        <v>0.1273483381243586</v>
+        <v>0.1367067305427495</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,10 +723,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.050611</v>
+        <v>0.100337</v>
       </c>
       <c r="H5">
-        <v>0.151833</v>
+        <v>0.301011</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>38.16548666666667</v>
+        <v>29.87534766666667</v>
       </c>
       <c r="N5">
-        <v>114.49646</v>
+        <v>89.62604300000001</v>
       </c>
       <c r="O5">
-        <v>0.3983723706545385</v>
+        <v>0.3209511963870337</v>
       </c>
       <c r="P5">
-        <v>0.3983723706545386</v>
+        <v>0.3209511963870337</v>
       </c>
       <c r="Q5">
-        <v>1.931593445686667</v>
+        <v>2.997602758830333</v>
       </c>
       <c r="R5">
-        <v>17.38434101118</v>
+        <v>26.978424829473</v>
       </c>
       <c r="S5">
-        <v>0.3983723706545385</v>
+        <v>0.3209511963870337</v>
       </c>
       <c r="T5">
-        <v>0.3983723706545386</v>
+        <v>0.3209511963870337</v>
       </c>
     </row>
   </sheetData>
